--- a/PRODUTOS/Mercearia Doce/Mercearia Doce - Cafe.xlsx
+++ b/PRODUTOS/Mercearia Doce/Mercearia Doce - Cafe.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:F120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Café Torrado E Moído Pilão Tradicional Almofada 500g</t>
+          <t>Cappuccino 3 Coracoes Chocolate Pt 200g</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 34,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/221c6c1d-7b1e-44ee-9298-e952ad17947d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ad002466-2576-4525-bff3-5572d4b8307a.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7896005802892</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Café Torrado E Moído À Vácuo Pilão 500g Tradicional</t>
+          <t>Cafe Pele Extra Forte Vacuo 500gr</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 34,99</t>
+          <t>R$ 33,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d29c3ceb-c227-4e7b-a763-6c93d2872da5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/20e18cf4-d4e9-46fa-b4bc-8c3216b79172.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7892222300500</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Café Torrado E Moído Vácuo Tradicional 3 Corações 500g</t>
+          <t>Café Torrado E Moído Melitta Extra Forte Vácuo 500g</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 35,99</t>
+          <t>R$ 36,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4fc0781a-e604-4022-9d57-2ab6c7737837.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ef335b47-1dd7-4078-b1fb-7cc216bfc813.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7896045102419</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Café Torrado E Moído Pelé Extra Forte Almofada 500g</t>
+          <t>Cappuccino 3 Coracoes Classic Pt 400gr</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 33,99</t>
+          <t>R$ 42,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b81c1aef-c0b2-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f5bb9ded-cd47-4bc2-8491-8ccaaf88a3bd.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7896005800140</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Café Torrado E Moído Melitta Tradicional Vácuo 500g</t>
+          <t>Nescafe Original Extra Forte 100gr Vidro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 36,99</t>
+          <t>R$ 32,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/95c504e4-c62a-4993-ba36-43403fab32d6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ef5ce1a9-0acb-443e-a379-cee1ac87f5f7.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7891000300503</t>
         </is>
       </c>
     </row>
@@ -596,7 +626,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Café Torrado E Moído União Tradicional Pouch 500g</t>
+          <t>Nescafe Matinal Vidro 100g</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -606,7 +636,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/82b6fd6d-e3b5-4809-9655-766868bd0fb4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8622de63-26c0-49df-ba11-5172f208bee7.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7891000315507</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Café Torrado E Moído União Extra Forte Pouch 500g</t>
+          <t>Café Torrado E Moído Pilão Tradicional Almofada 500g</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 32,99</t>
+          <t>R$ 34,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aab4db7b-d015-40b1-b8e4-a0b6cf5fada7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/221c6c1d-7b1e-44ee-9298-e952ad17947d.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7896005800546</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Café Torrado E Moído Extraforte A Vácuo 3 Corações 500g</t>
+          <t>Cafe A Vacuo Melitta 250g Trad</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 35,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/48417e3c-97bf-4052-a084-c40719045278.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cd6da9ef-15b2-43e4-b3f2-5595185dc075.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7891021006071</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Café Torrado E Moído Fort Almofada 500g</t>
+          <t>Café Torrado E Moído Melitta Tradicional Vácuo 500g</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 31,99</t>
+          <t>R$ 36,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ab662025-6fda-41bc-817a-d42db99bf74f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/95c504e4-c62a-4993-ba36-43403fab32d6.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7896045102419</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Café Torrado E Moído A Vácuo Fort Pacote 500g</t>
+          <t>Nescafe Tradicao Forte 100g Vidro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 31,99</t>
+          <t>R$ 32,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cf0cfac9-9e1d-47ac-a12c-4aedebe30085.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d7a30c9e-cefb-4592-9d3d-c85d5719bdd5.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7891000029329</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cafe Pele Extra Forte Vacuo 500gr</t>
+          <t>Cafe A Vacuo Pilao 250g Descaf</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 33,99</t>
+          <t>R$ 39,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/20e18cf4-d4e9-46fa-b4bc-8c3216b79172.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e371a8d1-765b-4019-bd1d-5fd4a87c3267.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7896089012118</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Café Torrado E Moído Melitta Extra Forte Vácuo 500g</t>
+          <t>Mist.p/cappuccino Baunilha 3 Corações20g</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 36,99</t>
+          <t>R$ 3,69</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ef335b47-1dd7-4078-b1fb-7cc216bfc813.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f05620dd-14d9-4bea-8c52-9962aa16bdea.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7896005802403</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Cafe Almofada Melitta 500g Trad</t>
+          <t>Mist P/cappuccino 3 Corações 20gr Choc</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 36,99</t>
+          <t>R$ 3,69</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a25d03b3-8cb8-4805-a9e2-65c123436aee.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/817504b3-75ca-45a4-9b81-2c3f231c7dd8.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7896005802397</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cafe Torrado E Moido Extraforte 3 Coracoes Pacote 500g</t>
+          <t>Cappuccino Classic 3 Corações 20g</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 35,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f1547586-cbe3-40e5-b5a9-31850f0ab08a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b06f5dbe-721b-4e81-b3d5-c8be40c9b244.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7896005800157</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cafe Almofada Pilao 500g Ex Fort</t>
+          <t>Cappuccino 3 Coracoes Sch 20g Canela</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 34,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3f838070-1d08-46ee-895b-d798e0f6eb2e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ac18fd18-f48d-4160-9929-63cc6f71b730.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7896005802427</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Café Soluvel Granulado 3 Corações 40g Tradicional</t>
+          <t>Café Torrado E Moído À Vácuo Pilão 500g Tradicional</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 34,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/65140248-9c85-4cc0-b1e5-adfc288eb0fe.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d29c3ceb-c227-4e7b-a763-6c93d2872da5.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7896089011357</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cafe Almofada Pilao 250g Trad</t>
+          <t>Cafe Pele Extra Forte 250gr</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 21,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9f2bb7cd-54f2-4163-95c6-144c2f7b9bbd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/34210cce-f5c9-474b-ad54-201d74294ebb.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7892222310257</t>
         </is>
       </c>
     </row>
@@ -920,7 +1010,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cafe A Vacuo Pele 500gr Trad</t>
+          <t>Café Torrado E Moído Pelé Extra Forte Almofada 500g</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -930,7 +1020,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a02d75a1-f741-45ca-b94f-6cf452b96e5c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b81c1aef-c0b2-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7896005800546</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cafe A Vacuo Pilao 250g Trad</t>
+          <t>Cafe A Vacuo Premium 3 Coracoes 500g</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 41,99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1148bd32-92de-41de-bb0d-0aaf773b02bf.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3c106305-6602-46f4-9f1a-3c2638f7fd64.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7896045102402</t>
         </is>
       </c>
     </row>
@@ -974,17 +1074,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cafe Almofada 3 Coracoes 250g Trad</t>
+          <t>Café Torrado E Moído Vácuo Tradicional 3 Corações 500g</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 31,99</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/40c1693b-09b0-4ff0-87ec-231b518f65a4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4fc0781a-e604-4022-9d57-2ab6c7737837.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7896045102440</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Cafe Almofada Melitta 500g Ex Forte</t>
+          <t>Cafe A Vacuo Premium 3coracoes 250g Trad</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 36,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4bdb3726-310f-4aa1-a3cf-04f1ec1018f4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7137ae55-276e-48c6-a701-6391f8865116.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7896005802557</t>
         </is>
       </c>
     </row>
@@ -1028,17 +1138,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Cafe A Vacuo Pilao 500g Intenso</t>
+          <t>Café Torrado E Moído Extraforte A Vácuo 3 Corações 500g</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>R$ 34,99</t>
+          <t>R$ 31,99</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/11869cb5-27b0-42e9-926a-c6d4202f229b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/48417e3c-97bf-4052-a084-c40719045278.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7896045102440</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Cafe A Vacuo Melitta 250g Trad</t>
+          <t>Café Almofada 3 Corações 250g Extra Forte</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 21,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cd6da9ef-15b2-43e4-b3f2-5595185dc075.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4fab39ca-4513-4b62-991c-029b033f2a33.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7896005801529</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1202,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Cafe A Vacuo Premium 3 Coracoes 500g</t>
+          <t>Cafe Soluvel 3 Coracoes Vd 50g Trad</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R$ 41,99</t>
+          <t>R$ 23,99</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3c106305-6602-46f4-9f1a-3c2638f7fd64.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8b52d10c-8006-43f1-88e7-05173ce4625b.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7896005800652</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1234,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cafe A Vacuo Pilao 252 Graus 500g Fort</t>
+          <t>Cafe Almofada 3 Coracoes 250g Trad</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R$ 34,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/43e645ab-a412-4cc0-8f5b-48e82f212137.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/40c1693b-09b0-4ff0-87ec-231b518f65a4.jpg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7896089011982</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1266,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Cafe Almofada Bravo 500g Premium</t>
+          <t>Cappuccino 3 Coracoes Classic Pt 200gr</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>R$ 32,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7a30c60b-57d9-4152-bdd5-32c6a0d9212c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d8048c23-3709-447c-872e-840ba9c09805.jpg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7896005800157</t>
         </is>
       </c>
     </row>
@@ -1163,17 +1298,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Café Soluvél Nescafé Matinal Sachê 40g Suave</t>
+          <t>Cappuccino Diet 3 Coracoes 150g</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 26,99</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/84a76f46-63c8-4852-b46b-383d132aada3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/517fc393-de48-4fc9-8a76-f9392a2dbbec.jpg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7896005802519</t>
         </is>
       </c>
     </row>
@@ -1190,17 +1330,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Cafe Soluvel 3 Corações 40g Extra Forte</t>
+          <t>Cafe A Vacuo Pilao 250g Trad</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e5c8c8a3-7df9-4270-9256-95b73af38db1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1148bd32-92de-41de-bb0d-0aaf773b02bf.jpg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7896089012637</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1362,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Café Solúvel Em Pó Iguaçu 40g Trad</t>
+          <t>Cafe Almofada Premium 3 Coracoes 500g</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 39,99</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f4f90b15-3c16-4b48-ad18-bf5157584888.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/00f5ef48-4fd0-44a8-ba4d-d0b094476132.jpg</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7898204020633</t>
         </is>
       </c>
     </row>
@@ -1244,17 +1394,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Café Nescafé Solúvel Original Extraforte Sachê 40g</t>
+          <t>Cafe Almofada Pilao 500g Intenso</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 34,99</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c35a947d-548e-4f87-a907-e4b8f906517c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bafae838-cc94-4556-8d92-29a56f6892ff.jpg</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7896089012927</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1426,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Café Almofada 3 Corações 250g Extra Forte</t>
+          <t>Cafe A Vacuo Pilao 500g Intenso</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 34,99</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4fab39ca-4513-4b62-991c-029b033f2a33.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/11869cb5-27b0-42e9-926a-c6d4202f229b.jpg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7896089012880</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1458,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cafe Almofada Pilao 500g Intenso</t>
+          <t>Cafe C/leite 3 Coracoes Sch 100g</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>R$ 34,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bafae838-cc94-4556-8d92-29a56f6892ff.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2ce46d33-2442-402a-bc7e-2c310258876b.jpg</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7896005804520</t>
         </is>
       </c>
     </row>
@@ -1325,17 +1490,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Nescafe Matinal Vidro 100g</t>
+          <t>Cappuccino 3 Coracoes Sch 100g Classic</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>R$ 32,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8622de63-26c0-49df-ba11-5172f208bee7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/96bdfda6-8c91-49b1-bd39-281e7bd6264c.jpg</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7896005800157</t>
         </is>
       </c>
     </row>
@@ -1352,17 +1522,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Cafe Vacuo Pilao 500g Ex Fort</t>
+          <t>Cappuccino 3 Coracoes Pt 200gr Baun</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>R$ 34,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0bba7b0d-f767-4493-b1d8-00f4a9ca0d44.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/abffc99a-4052-4f5d-a343-b5537a194ebc.jpg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7896005804629</t>
         </is>
       </c>
     </row>
@@ -1379,17 +1554,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Capsula Pilao Espresso 12 52 Gr</t>
+          <t>Cafe Vacuo Pilao 500g Ex Fort</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 34,99</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/51761a7a-9e2c-48a8-a743-d35b21ae4fc6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0bba7b0d-f767-4493-b1d8-00f4a9ca0d44.jpg</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7896045102419</t>
         </is>
       </c>
     </row>
@@ -1406,17 +1586,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Cápsula Nescafé Dolce Café Au Lait 100g</t>
+          <t>Cafe Almofada Pilao 500g Ex Fort</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>R$ 28,99</t>
+          <t>R$ 34,99</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ed3be7a1-38da-4da1-8c3b-b6968866d8eb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3f838070-1d08-46ee-895b-d798e0f6eb2e.jpg</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7896089013399</t>
         </is>
       </c>
     </row>
@@ -1433,7 +1618,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Capsula Italle Roma 50g C/10 Nespresso</t>
+          <t>Cafe Cappucino Iguaçu Pt 200g Classico</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1443,7 +1628,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/90dace78-a652-4e79-9d04-1d5e6fd634fd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bb11759f-c0b2-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7896019201537</t>
         </is>
       </c>
     </row>
@@ -1460,17 +1650,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Cafe Almofada Fort 250g</t>
+          <t>Cafe Cappuccino Iguaçu 200g C/canela</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/87a4eef1-6eca-4f55-ad6d-94856b17949e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/865e94b7-f071-4099-826a-16e8e4a182c1.jpg</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7896019206174</t>
         </is>
       </c>
     </row>
@@ -1487,17 +1682,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Cafe Almofada Violeta 500g Extra Forte</t>
+          <t>Cafe Cappucino Iguaçu Pt 200g C/ Choc</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>R$ 26,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4989bc57-6309-4aa8-9a6d-e4422f9deaaa.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1bcee7f3-cf79-4881-974f-f98de6fc4475.jpg</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7896019207294</t>
         </is>
       </c>
     </row>
@@ -1514,17 +1714,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Capsula Nescafe Dolce Gusto C/10un Expresso</t>
+          <t>Cafe Almofada Fort 250g</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>R$ 28,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b1d71cc6-c1f7-4fb3-b5b1-c088d230d948.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/87a4eef1-6eca-4f55-ad6d-94856b17949e.jpg</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7896005800546</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1746,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Cafe Almofada Premium 3 Coracoes 500g</t>
+          <t>Cafe Almofada Melitta 500g Trad</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>R$ 42,99</t>
+          <t>R$ 36,99</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/00f5ef48-4fd0-44a8-ba4d-d0b094476132.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a25d03b3-8cb8-4805-a9e2-65c123436aee.jpg</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7891021005043</t>
         </is>
       </c>
     </row>
@@ -1568,17 +1778,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Café Forte Nescafé Tradição Sachê 40g</t>
+          <t>Cafe Soluvel Iguacu Vd 100g</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 33,99</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c20efae6-0a69-4146-9cc8-1617b7628675.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/153b64cd-4e19-47c0-8055-bbea2e221b97.jpg</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7896005800669</t>
         </is>
       </c>
     </row>
@@ -1595,17 +1810,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Cafe A Vacuo Premium 3coracoes 250g Trad</t>
+          <t>Capsula Pilao Espresso 07 52gr</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7137ae55-276e-48c6-a701-6391f8865116.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/36a9260b-4b81-4bb6-b11d-9142415810c9.jpg</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7896089088427</t>
         </is>
       </c>
     </row>
@@ -1622,7 +1842,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Cafe Pele Extra Forte 250gr</t>
+          <t>Capsula Pilao Lungo 08 52gr</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1632,7 +1852,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/34210cce-f5c9-474b-ad54-201d74294ebb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d94c88a1-435e-4e7c-90c6-ac8a7a716faf.jpg</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7896089088380</t>
         </is>
       </c>
     </row>
@@ -1649,7 +1874,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Capsula Pilao Lungo 08 52gr</t>
+          <t>Capsula Pilao Espresso 12 52 Gr</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1659,7 +1884,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d94c88a1-435e-4e7c-90c6-ac8a7a716faf.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/51761a7a-9e2c-48a8-a743-d35b21ae4fc6.jpg</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7896089088427</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1906,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Capsula Italle Napoli 50g C/10 Nespresso</t>
+          <t>Café Torrado E Moído A Vácuo Fort Pacote 500g</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 31,99</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/40ebfc66-f1ef-49e8-bf2c-b8e5095134f4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cf0cfac9-9e1d-47ac-a12c-4aedebe30085.jpg</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7896045102419</t>
         </is>
       </c>
     </row>
@@ -1703,17 +1938,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Capsula Italle Milao 50g C/10 Nespesso</t>
+          <t>Cappuccino 3 Coraçoes Balance 180gr</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/550dd725-c16a-47da-b4ff-dd78303378c3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bb330618-4acb-4586-87a5-b6f55cd8572d.jpg</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7896005804629</t>
         </is>
       </c>
     </row>
@@ -1730,17 +1970,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Capsula Italle Turim 50g C/10 Nespresso</t>
+          <t>Cafe Almofada Pouch Melitta 250gr Trad</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5da302ab-510e-4b40-919b-b952bad46a5c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/16cd5f03-21fe-40be-a69d-7cbaee2a1c01.jpg</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7891021006088</t>
         </is>
       </c>
     </row>
@@ -1757,7 +2002,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Capsula Nescafe Dolce Gusto C/10un Caffe Matinal</t>
+          <t>Cápsula Nescafé Dolce Café Au Lait 100g</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1767,7 +2012,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f6d48610-43dd-4076-a888-04077fd5cc75.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ed3be7a1-38da-4da1-8c3b-b6968866d8eb.jpg</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7891000243954</t>
         </is>
       </c>
     </row>
@@ -1784,17 +2034,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Capsula Nescafe Dolce Gusto C/10 80g Caseiro</t>
+          <t>Capsula Nescafe Doce Gusto C/10un Nescau</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>R$ 28,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9b0274e6-c590-4657-b640-85da27d4d23e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c522b4dc-0197-4967-9142-1f338f275668.jpg</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7891000243688</t>
         </is>
       </c>
     </row>
@@ -1811,17 +2066,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Cafe Organico Native 250g Extra Forte</t>
+          <t>Capsula Nescafe Dolce Gusto C/10un Caffe Matinal</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>R$ 33,99</t>
+          <t>R$ 28,99</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e879d890-8c10-456b-b367-d66ce32f578b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f6d48610-43dd-4076-a888-04077fd5cc75.jpg</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7891000621981</t>
         </is>
       </c>
     </row>
@@ -1838,17 +2098,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Capsula Italle Veneza 50g C/10 Nespresso</t>
+          <t>Capsula Nescafe Dolce Gusto C/10un Expresso</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 28,99</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/91bbc79b-4b76-4434-b61d-d20061ef6419.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b1d71cc6-c1f7-4fb3-b5b1-c088d230d948.jpg</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7891000243787</t>
         </is>
       </c>
     </row>
@@ -1865,7 +2130,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Café Em Cápsula Torrado E Moído Espresso Intenso Nescafé Dolce Gusto 80g 10 Unidades</t>
+          <t>Capsula Nescafe Dolce Gusto 10un 117g</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1875,7 +2140,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e72b11c8-014e-4517-87df-6937e14f0180.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4afca801-ad48-4de2-9370-441b243adbdc.jpg</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7891000291863</t>
         </is>
       </c>
     </row>
@@ -1892,17 +2162,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Cafe A Vacuo Pilao 250g Descaf</t>
+          <t>Cafe Almofada Pilao 250g Trad</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>R$ 39,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e371a8d1-765b-4019-bd1d-5fd4a87c3267.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9f2bb7cd-54f2-4163-95c6-144c2f7b9bbd.jpg</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7896089011982</t>
         </is>
       </c>
     </row>
@@ -1919,7 +2194,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Cafe C/leite 3 Coracoes Sch 100g</t>
+          <t>Café Soluvél Nescafé Matinal Sachê 40g Suave</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1929,7 +2204,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2ce46d33-2442-402a-bc7e-2c310258876b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/84a76f46-63c8-4852-b46b-383d132aada3.jpg</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7891000307045</t>
         </is>
       </c>
     </row>
@@ -1946,17 +2226,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Cappuccino 3 Coracoes Classic Pt 200gr</t>
+          <t>Cafe A Vacuo Pele 500gr Trad</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 33,99</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d8048c23-3709-447c-872e-840ba9c09805.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a02d75a1-f741-45ca-b94f-6cf452b96e5c.jpg</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7892222310547</t>
         </is>
       </c>
     </row>
@@ -1973,17 +2258,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Cafe Cappuccino Iguaçu 200g C/canela</t>
+          <t>Café Solúvel Granulado Extraforte Nescafé Original Vidro 160g</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 37,99</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/865e94b7-f071-4099-826a-16e8e4a182c1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/acbf7a32-26d1-4797-aca9-f664220f4089.jpg</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7891000307120</t>
         </is>
       </c>
     </row>
@@ -2000,17 +2290,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Capsula Nescafe Dolce Gusto C/10 70g Lungo</t>
+          <t>Cafe A Vacuo Pilao 252 Graus 500g Fort</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>R$ 28,99</t>
+          <t>R$ 34,99</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/036b92f5-b1ad-4927-88c9-7dc6a0d89a39.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/43e645ab-a412-4cc0-8f5b-48e82f212137.jpg</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7896089013849</t>
         </is>
       </c>
     </row>
@@ -2027,17 +2322,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Cafe Cappucino Iguaçu Pt 200g Classico</t>
+          <t>Cafe Com Leite Nescafe Lt 300g</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 28,99</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bb11759f-c0b2-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ca876dc8-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7891000006290</t>
         </is>
       </c>
     </row>
@@ -2054,17 +2354,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Cafe Almofada Pouch Melitta 250gr Trad</t>
+          <t>Cafe Almofada Melitta 500g Ex Forte</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>R$ 21,99</t>
+          <t>R$ 36,99</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/16cd5f03-21fe-40be-a69d-7cbaee2a1c01.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4bdb3726-310f-4aa1-a3cf-04f1ec1018f4.jpg</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7891021005067</t>
         </is>
       </c>
     </row>
@@ -2081,17 +2386,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Cappuccino Classic 3 Corações 20g</t>
+          <t>Café Torrado E Moído União Extra Forte Pouch 500g</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 32,99</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b06f5dbe-721b-4e81-b3d5-c8be40c9b244.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aab4db7b-d015-40b1-b8e4-a0b6cf5fada7.jpg</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7891910030354</t>
         </is>
       </c>
     </row>
@@ -2108,17 +2418,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Capsula Pilao Espresso 07 52gr</t>
+          <t>Cafe Almofada Bravo 500g Premium</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 32,99</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/36a9260b-4b81-4bb6-b11d-9142415810c9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7a30c60b-57d9-4152-bdd5-32c6a0d9212c.jpg</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7898204020633</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2450,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Capsula 3 Coracoes Cafe C/leite 10un</t>
+          <t>Capsula Cafe Italle 25g C/10 Cacau Nespresso</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>R$ 21,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d839cc90-e745-483c-a432-06c8c4ce3709.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cea10e9c-5366-4a4e-9fdd-747262de6f4b.jpg</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7898994748762</t>
         </is>
       </c>
     </row>
@@ -2162,17 +2482,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Cafe Soluvel 3 Coracoes Vd 50g Trad</t>
+          <t>Capsula Capuccino Italle 75g C/10 Nespresso</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>R$ 23,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8b52d10c-8006-43f1-88e7-05173ce4625b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/713c5e75-7940-4c1f-8865-582bd848dac7.jpg</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7898994748786</t>
         </is>
       </c>
     </row>
@@ -2189,17 +2514,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Cappuccino Diet 3 Coracoes 150g</t>
+          <t>Capsula Italle Creme Brulee 75g C/10 Nespresso</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>R$ 26,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/517fc393-de48-4fc9-8a76-f9392a2dbbec.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/93cbf1e6-b5c1-475c-9ac4-51ad877916b1.jpg</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7898994826255</t>
         </is>
       </c>
     </row>
@@ -2216,17 +2546,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Cafe Almofada Bravo 250g Torrado/moido</t>
+          <t>Capsula Italle Chocolate 75g C/10 Nespresso</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>R$ 24,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/85c6a3a7-f5e0-43dd-af18-0ceaf92e12f9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/80c3f8c9-ee5f-4f64-a713-8de2f526b82b.jpg</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7898994826255</t>
         </is>
       </c>
     </row>
@@ -2243,17 +2578,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Nescafe Original Extra Forte 100gr Vidro</t>
+          <t>Capsula Italle Milao 50g C/10 Nespesso</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>R$ 32,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ef5ce1a9-0acb-443e-a379-cee1ac87f5f7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/550dd725-c16a-47da-b4ff-dd78303378c3.jpg</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7898994826200</t>
         </is>
       </c>
     </row>
@@ -2270,17 +2610,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Cafe Soluvel Iguacu Vd 100g Gourmet</t>
+          <t>Capsula Italle Napoli 50g C/10 Nespresso</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>R$ 37,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a2c091e4-5ada-47cf-84db-607f27b3d72d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/40ebfc66-f1ef-49e8-bf2c-b8e5095134f4.jpg</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7898994748717</t>
         </is>
       </c>
     </row>
@@ -2297,17 +2642,22 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Cappuccino 3 Coracoes Chocolate Pt 200g</t>
+          <t>Capsula Italle Roma 50g C/10 Nespresso</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ad002466-2576-4525-bff3-5572d4b8307a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/90dace78-a652-4e79-9d04-1d5e6fd634fd.jpg</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7898994748700</t>
         </is>
       </c>
     </row>
@@ -2324,17 +2674,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Capsula 3 Coracoes Cafe Atento Un</t>
+          <t>Capsula Italle Turim 50g C/10 Nespresso</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>R$ 21,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/df3591eb-980e-44b0-a57d-5993d7eb9df0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5da302ab-510e-4b40-919b-b952bad46a5c.jpg</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7898994748731</t>
         </is>
       </c>
     </row>
@@ -2351,17 +2706,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Capsula Capuccino Italle 75g C/10 Nespresso</t>
+          <t>Capsula Italle Veneza 50g C/10 Nespresso</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/713c5e75-7940-4c1f-8865-582bd848dac7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/91bbc79b-4b76-4434-b61d-d20061ef6419.jpg</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7898994748724</t>
         </is>
       </c>
     </row>
@@ -2378,17 +2738,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Nescafe Tradicao Forte 100g Vidro</t>
+          <t>Cappuccino 3 Coracoes Avela Pote 200g</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>R$ 32,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d7a30c9e-cefb-4592-9d3d-c85d5719bdd5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/71cbab82-dfd0-44da-bec8-dba79c365123.jpg</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7896045104352</t>
         </is>
       </c>
     </row>
@@ -2405,17 +2770,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Cafe Cappucino Iguaçu Pt 200g C/ Choc</t>
+          <t>Capsula Italle Capuccino 140g Com 10</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1bcee7f3-cf79-4881-974f-f98de6fc4475.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/53e4093b-2270-462d-a6fc-c01e86d55868.jpg</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7898968710146</t>
         </is>
       </c>
     </row>
@@ -2432,17 +2802,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Café Solúvel Granulado Extraforte Nescafé Original Vidro 160g</t>
+          <t>Capsula Nescafe Dolce Gusto C/10 160g Chococino</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>R$ 37,99</t>
+          <t>R$ 28,99</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/acbf7a32-26d1-4797-aca9-f664220f4089.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6fcb9ce0-e0de-4da9-ab81-81a82d86891e.jpg</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7891000355886</t>
         </is>
       </c>
     </row>
@@ -2459,17 +2834,22 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Mist P/cappuccino 3 Corações 20gr Choc</t>
+          <t>Capsula Nescafe Dolce Gusto C/6 170g Capuccino</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>R$ 3,69</t>
+          <t>R$ 28,99</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/817504b3-75ca-45a4-9b81-2c3f231c7dd8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/76e6f04b-8a66-47fe-ba48-623a86157c84.jpg</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7891000294376</t>
         </is>
       </c>
     </row>
@@ -2486,17 +2866,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Capsula 3 Coracoes Vibrante Espres C/10</t>
+          <t>Capsula Nescafe Dolce Gusto C/6 172g Mochaccino</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>R$ 21,99</t>
+          <t>R$ 28,99</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b6b49858-e80b-40d1-b207-1c8d17808905.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0c91d6dd-e959-4740-ba12-5086e65a721c.jpg</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7891000294376</t>
         </is>
       </c>
     </row>
@@ -2513,7 +2898,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Cafe Com Leite Nescafe Lt 300g</t>
+          <t>Capsula Nescafe Dolce Gusto C/10 70g Lungo</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2523,7 +2908,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ca876dc8-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/036b92f5-b1ad-4927-88c9-7dc6a0d89a39.jpg</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7891000147238</t>
         </is>
       </c>
     </row>
@@ -2540,17 +2930,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Cafe Almofada Bravo 250g Torrado/moido Maestro</t>
+          <t>Capsula Nescafe Dolce Gusto C/10 180g Macchiato</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>R$ 24,99</t>
+          <t>R$ 28,99</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0fd80019-113f-49a7-a5d0-5a75da3c3680.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/242fdcd5-7feb-4f2a-bd93-97bf2a69adf8.jpg</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7891000388655</t>
         </is>
       </c>
     </row>
@@ -2567,17 +2962,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Capsula 3 Coracoes Supremo Espresso C/10</t>
+          <t>Capsula Nescafe Dolce Gusto C/10 80g Caseiro</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>R$ 21,99</t>
+          <t>R$ 28,99</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e55e218a-cbf4-4bb6-81fa-9ba3c437dc46.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9b0274e6-c590-4657-b640-85da27d4d23e.jpg</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7891000302750</t>
         </is>
       </c>
     </row>
@@ -2594,17 +2994,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Capsula 3 Coracoes Cafe Ameno Un</t>
+          <t>Cafe Soluvel 3 Corações 40g Extra Forte</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>R$ 21,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f7e4871a-d7b7-44ad-9511-7d51e1219a5a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e5c8c8a3-7df9-4270-9256-95b73af38db1.jpg</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7896045111398</t>
         </is>
       </c>
     </row>
@@ -2621,17 +3026,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Capsula 3 Coracoes Cappucc Espresso C/10</t>
+          <t>Café Soluvel Granulado 3 Corações 40g Tradicional</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>R$ 21,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ef334593-1dd7-452d-8600-8b067f17c683.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/65140248-9c85-4cc0-b1e5-adfc288eb0fe.jpg</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7896045103003</t>
         </is>
       </c>
     </row>
@@ -2648,17 +3058,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Cappuccino 3 Coracoes Sch 20g Canela</t>
+          <t>Café Nescafé Solúvel Original Extraforte Sachê 40g</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ac18fd18-f48d-4160-9929-63cc6f71b730.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c35a947d-548e-4f87-a907-e4b8f906517c.jpg</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7891000307120</t>
         </is>
       </c>
     </row>
@@ -2675,17 +3090,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Cappuccino 3 Coracoes Pt 200gr Baun</t>
+          <t>Cafe Soluvel Nescafe Descafeinado Sachet 40g</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/abffc99a-4052-4f5d-a343-b5537a194ebc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0c767681-1987-4171-9e9d-53113b15c970.jpg</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7891000184004</t>
         </is>
       </c>
     </row>
@@ -2702,17 +3122,22 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Capsula 3 Coracoes Pleno Espresso C/10</t>
+          <t>Café Forte Nescafé Tradição Sachê 40g</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>R$ 21,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d4a1b0ff-43fa-4e05-ba94-342c108d717e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c20efae6-0a69-4146-9cc8-1617b7628675.jpg</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7891000029329</t>
         </is>
       </c>
     </row>
@@ -2729,17 +3154,22 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Cafe Almofada Bravo 250g Torrado/moido Soprano</t>
+          <t>Capsula De Café Nescafé Dolce Gusto 170g Au Lait</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>R$ 24,99</t>
+          <t>R$ 28,99</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cebd4266-9f6e-45a8-8455-ac3c0ed1fee2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/07c571d6-9e2f-49ed-a359-446b92556d77.jpg</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7891000907573</t>
         </is>
       </c>
     </row>
@@ -2756,17 +3186,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Capsula Nescafe Dolce Gusto C/6 172g Mochaccino</t>
+          <t>Café Solúvel Em Pó Iguaçu 40g Trad</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>R$ 28,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0c91d6dd-e959-4740-ba12-5086e65a721c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f4f90b15-3c16-4b48-ad18-bf5157584888.jpg</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7896045102990</t>
         </is>
       </c>
     </row>
@@ -2783,17 +3218,22 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Cafe Organico Native 50gr Liofilizado</t>
+          <t>Cereal Matinal Nescau 540g</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 25,99</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/657ab35c-9c0f-448b-8752-3bec908f59ee.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9e5ce068-cb07-49b7-a202-5fd8633845ad.jpg</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7891000361641</t>
         </is>
       </c>
     </row>
@@ -2810,17 +3250,22 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Cafe Organico Native 250g Original</t>
+          <t>Café Soluvel Lor Sachê 40g Espresso</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>R$ 36,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b0ddf068-95eb-48ff-9320-d1de07cc3912.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/577765e0-d327-4481-bf5b-3ef708a0ac0f.jpg</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7896089089868</t>
         </is>
       </c>
     </row>
@@ -2837,17 +3282,22 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Cappuccino 3 Coracoes Avela Pote 200g</t>
+          <t>Café Soluvel Lor Sachê 40g Intense</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/71cbab82-dfd0-44da-bec8-dba79c365123.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8fc85641-246e-4c10-919c-dfe4b1635dab.jpg</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>7896089089912</t>
         </is>
       </c>
     </row>
@@ -2864,17 +3314,22 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Cappuccino 3 Coracoes Classic Pt 400gr</t>
+          <t>Café Italle Torrado/moido 250g Aroma Caramelo</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>R$ 42,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f5bb9ded-cd47-4bc2-8491-8ccaaf88a3bd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a9f50661-9fa0-4e39-933d-2185ff7a049f.jpg</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>7898968710702</t>
         </is>
       </c>
     </row>
@@ -2891,17 +3346,22 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Cafe Soluvel Iguacu Vd 100g</t>
+          <t>Café Italle Torrado/moido 250g Aroma Chocolate C/avelã</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>R$ 33,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/153b64cd-4e19-47c0-8055-bbea2e221b97.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5e470c9e-042a-489b-9d83-565b13ba1c68.jpg</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>7898968710702</t>
         </is>
       </c>
     </row>
@@ -2918,17 +3378,22 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Cafe Gourmet Santa Monica 250g Torrado E Moido</t>
+          <t>Café Italle Torrado/moido 250g Aroma Chocolate Trufado</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>R$ 38,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0d066c67-d2a4-49f9-a27d-50a50c969ce8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7d24ca0f-87ee-49e4-8dbe-f7e00acbdde6.jpg</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7898968710702</t>
         </is>
       </c>
     </row>
@@ -2945,7 +3410,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Cafe Almofada Bravo 250g Torrado E Moido Baritono</t>
+          <t>Café Italle Torrado/moido 250g Aroma Chocolate C/menta</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2955,7 +3420,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/be9a38dd-3ab6-4e97-a96a-d29c5473e29f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c0d06cd5-a815-4375-8667-150401f95af7.jpg</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>7898968710719</t>
         </is>
       </c>
     </row>
@@ -2972,17 +3442,22 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Cafe Soluvel Nescafe Descafeinado Sachet 40g</t>
+          <t>Café Solúvel Nescafe Sachê 40g Gold Intensidade 6</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>R$ 21,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0c767681-1987-4171-9e9d-53113b15c970.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8c91cacf-e2d8-44e0-8b73-707c9b8a354a.jpg</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>7891000491249</t>
         </is>
       </c>
     </row>
@@ -2999,17 +3474,22 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Cereal Matinal Nescau 540g</t>
+          <t>Cafe Almofada Violeta 500g Extra Forte</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>R$ 25,99</t>
+          <t>R$ 26,99</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9e5ce068-cb07-49b7-a202-5fd8633845ad.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4989bc57-6309-4aa8-9a6d-e4422f9deaaa.jpg</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>7896005800546</t>
         </is>
       </c>
     </row>
@@ -3026,17 +3506,22 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Capsula Cafe Italle 25g C/10 Cacau Nespresso</t>
+          <t>Café 3 Corações Gourmet 250g Cerrado Mineiro</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 27,99</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cea10e9c-5366-4a4e-9fdd-747262de6f4b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/af2b6d74-4931-4d02-9e74-150501d36ac0.jpg</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>7896045101658</t>
         </is>
       </c>
     </row>
@@ -3053,17 +3538,22 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Capsula Nescafe Doce Gusto C/10un Nescau</t>
+          <t>Cafe 3 Coraçoes Gourmet 250g Dark</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 27,99</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c522b4dc-0197-4967-9142-1f338f275668.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e7e19bb2-d5d0-4e0f-9b43-0eb6963ec0fd.jpg</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>7896045106851</t>
         </is>
       </c>
     </row>
@@ -3080,17 +3570,22 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Capsula Italle Chocolate 75g C/10 Nespresso</t>
+          <t>Café 3 Corações Gourmet 250g Mogiano Paulista</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 27,99</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/80c3f8c9-ee5f-4f64-a713-8de2f526b82b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6da73d0c-5464-463f-88da-6dd5fb2d6c86.jpg</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>7896045101641</t>
         </is>
       </c>
     </row>
@@ -3107,17 +3602,22 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Capsula 3 Coracoes Caramello C/10</t>
+          <t>Café 3 Corações Gourmet 250g Sul De Minas</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>R$ 21,99</t>
+          <t>R$ 27,99</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eecc416f-dbd8-4dce-abb0-eceb675373bc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b61a9dd2-7faf-4ea3-820a-2ca3e051db99.jpg</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>7896045101665</t>
         </is>
       </c>
     </row>
@@ -3134,17 +3634,22 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Capsula 3 Coracoes 10un 11g Capp Avela</t>
+          <t>Bravo Cafe Premium 500g</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>R$ 21,99</t>
+          <t>R$ 33,99</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fea1e2f5-62d0-4271-b5a1-a7cf05ca998f.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>7898204020633</t>
         </is>
       </c>
     </row>
@@ -3161,17 +3666,22 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Capsula Nescafe Dolce Gusto C/6 170g Capuccino</t>
+          <t>Capsula Bravo Cafe Baritono 50g C/10</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>R$ 28,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/76e6f04b-8a66-47fe-ba48-623a86157c84.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1c56e7d5-2df2-4cff-9956-be8ac41030e6.jpg</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>7898204020329</t>
         </is>
       </c>
     </row>
@@ -3188,17 +3698,22 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Mist.p/cappuccino Baunilha 3 Corações20g</t>
+          <t>Capsula Bravo Cafe Maestro 50g C/10</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>R$ 3,69</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f05620dd-14d9-4bea-8c52-9962aa16bdea.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4dc11920-9838-4365-b0ee-e4e3bdce0f0e.jpg</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>7898204020312</t>
         </is>
       </c>
     </row>
@@ -3215,17 +3730,22 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Café Soluvel Lor Sachê 40g Intense</t>
+          <t>Capsula Bravo Cafe Soprano 50g C/10</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8fc85641-246e-4c10-919c-dfe4b1635dab.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/03a258a1-b6ac-44bc-b048-bca2b9ac57cb.jpg</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>7898204020336</t>
         </is>
       </c>
     </row>
@@ -3242,17 +3762,22 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Cappuccino 3 Coracoes Sch 100g Classic</t>
+          <t>Capsula Bravo Cafe Tenor 50g C/10</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/96bdfda6-8c91-49b1-bd39-281e7bd6264c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a65ed466-de60-489b-a056-6ba8f153b016.jpg</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>7898204020312</t>
         </is>
       </c>
     </row>
@@ -3269,7 +3794,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Capsula 3 Coracoes Cafe Coado Esp C/10</t>
+          <t>Capsula 3 Coracoes Cafe Atento Un</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3279,7 +3804,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/05df258d-f3f4-4050-b5dc-4616e63b7784.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/df3591eb-980e-44b0-a57d-5993d7eb9df0.jpg</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>7896005805718</t>
         </is>
       </c>
     </row>
@@ -3296,17 +3826,22 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Cafe Organic Santa Monica 250g Moido</t>
+          <t>Capsula 3 Coracoes Pleno Espresso C/10</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>R$ 43,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/37747df6-15f0-4497-b19a-4e0e2d7ec007.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d4a1b0ff-43fa-4e05-ba94-342c108d717e.jpg</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>7896005804995</t>
         </is>
       </c>
     </row>
@@ -3323,17 +3858,22 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Capsula Nescafe Dolce Gusto 10un 117g</t>
+          <t>Capsula 3 Coracoes Cappucc Espresso C/10</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>R$ 28,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4afca801-ad48-4de2-9370-441b243adbdc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ef334593-1dd7-452d-8600-8b067f17c683.jpg</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>7896005805077</t>
         </is>
       </c>
     </row>
@@ -3350,17 +3890,22 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Capsula Nescafe Dolce Gusto C/10 180g Macchiato</t>
+          <t>Capsula 3 Coracoes Cafe Gourmet Esp C/10</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>R$ 28,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/242fdcd5-7feb-4f2a-bd93-97bf2a69adf8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f6a106f6-4c5a-4698-ae40-97c050839700.jpg</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>7896005805114</t>
         </is>
       </c>
     </row>
@@ -3377,17 +3922,22 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Café 3 Corações Gourmet 250g Cerrado Mineiro</t>
+          <t>Capsula 3 Coracoes Supremo Espresso C/10</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>R$ 27,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/af2b6d74-4931-4d02-9e74-150501d36ac0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e55e218a-cbf4-4bb6-81fa-9ba3c437dc46.jpg</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>7896005805008</t>
         </is>
       </c>
     </row>
@@ -3404,7 +3954,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Capsula 3 Coracoes C/10 Chocolatto 110g</t>
+          <t>Capsula 3 Coracoes Cafe C/leite 10un</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3414,7 +3964,12 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dc926cc9-d46c-4114-87fb-b6735bbbef0f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d839cc90-e745-483c-a432-06c8c4ce3709.jpg</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>7896005804520</t>
         </is>
       </c>
     </row>
@@ -3431,17 +3986,22 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Capsula 3 Coracoes C/10un 11g Lat Macch</t>
+          <t>Capsula 3 Coracoes Cha Erva Doce C/10</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>R$ 21,99</t>
+          <t>R$ 23,99</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bd145e12-ee30-45bf-b209-f3e58bdf9de3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cf2ba39c-665f-406d-b853-631122088b9d.jpg</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>7896005805107</t>
         </is>
       </c>
     </row>
@@ -3458,17 +4018,22 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Capsula Italle Creme Brulee 75g C/10 Nespresso</t>
+          <t>Capsula 3 Coracoes Caramello C/10</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/93cbf1e6-b5c1-475c-9ac4-51ad877916b1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eecc416f-dbd8-4dce-abb0-eceb675373bc.jpg</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>7896005806203</t>
         </is>
       </c>
     </row>
@@ -3485,17 +4050,22 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Cafe Intenso Santa Monica 250g Tor Moido</t>
+          <t>Capsula 3 Coracoes Cafe Coado Esp C/10</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>R$ 38,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0a0b3c16-aa66-448c-9105-bda42011ae51.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/05df258d-f3f4-4050-b5dc-4616e63b7784.jpg</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>7896005805107</t>
         </is>
       </c>
     </row>
@@ -3512,17 +4082,22 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Café 3 Corações Gourmet 250g Mogiano Paulista</t>
+          <t>Capsula 3 Coracoes C/10 Chocolatto 110g</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>R$ 27,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6da73d0c-5464-463f-88da-6dd5fb2d6c86.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dc926cc9-d46c-4114-87fb-b6735bbbef0f.jpg</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>7896005806203</t>
         </is>
       </c>
     </row>
@@ -3539,7 +4114,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Capsula 3 Coracoes Cafe Gourmet Esp C/10</t>
+          <t>Cap 3 Coracoes 10un 11g Chai Latte</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3549,7 +4124,12 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f6a106f6-4c5a-4698-ae40-97c050839700.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cd7a361c-eb97-4e06-83e5-42e5d0a50efb.jpg</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>7896005806210</t>
         </is>
       </c>
     </row>
@@ -3566,17 +4146,22 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Cafe Em Graos Gourmet Santa Monica 250g</t>
+          <t>Capsula 3 Coracoes C/10un 11g Lat Macch</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>R$ 39,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0598d445-3597-43cd-9546-5a295894418e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bd145e12-ee30-45bf-b209-f3e58bdf9de3.jpg</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>7896005810057</t>
         </is>
       </c>
     </row>
@@ -3593,7 +4178,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Cápsula Café Cacau Italle 70g C/10</t>
+          <t>Capsula 3 Coracoes 10un 11g Capp Avela</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3603,7 +4188,12 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/57a7db69-6acc-4987-b353-6b5bf7d2c628.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fea1e2f5-62d0-4271-b5a1-a7cf05ca998f.jpg</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>7896005810057</t>
         </is>
       </c>
     </row>
@@ -3620,17 +4210,22 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Capsula De Café Nescafé Dolce Gusto 170g Au Lait</t>
+          <t>Capsula 3 Coracoes Vibrante Espres C/10</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>R$ 28,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/07c571d6-9e2f-49ed-a359-446b92556d77.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b6b49858-e80b-40d1-b207-1c8d17808905.jpg</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>7896005805015</t>
         </is>
       </c>
     </row>
@@ -3647,854 +4242,22 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Café Italle Torrado/moido 250g Aroma Caramelo</t>
+          <t>Capsula 3 Coracoes Cafe Ameno Un</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>R$ 24,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a9f50661-9fa0-4e39-933d-2185ff7a049f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Capsula 3 Coracoes Cha Erva Doce C/10</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>R$ 23,99</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cf2ba39c-665f-406d-b853-631122088b9d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Drip Coffe Organico Santa Monica C/10 Sache</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>R$ 29,99</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9103c5ff-eda5-407d-93ff-cc460c89e0c5.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Capsula Nescafe Dolce Gusto C/10 160g Chococino</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>R$ 28,99</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6fcb9ce0-e0de-4da9-ab81-81a82d86891e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Café Italle Torrado/moido 250g Aroma Chocolate Trufado</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>R$ 24,99</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7d24ca0f-87ee-49e4-8dbe-f7e00acbdde6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Cevada Live 200g Soluvel</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>R$ 31,99</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/15d357e0-f177-4d03-91f9-c99bd01b0ee9.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Capsula Italle Capuccino 140g Com 10</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>R$ 21,99</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/53e4093b-2270-462d-a6fc-c01e86d55868.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Cappuccino 3 Coraçoes Balance 180gr</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>R$ 29,99</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bb330618-4acb-4586-87a5-b6f55cd8572d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Capsula Nescafe Dolce Gusto C/6 80g Organico</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>R$ 22,99</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/503ab399-2a39-4bd1-9984-575b347684ee.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Capsulas Cafe Nescafe C/10 44g Colombia</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>R$ 26,99</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9a54fb97-0cd7-4ff3-9a6b-b9082ad0f051.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Café Italle Torrado/moido 250g Aroma Chocolate C/menta</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>R$ 24,99</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c0d06cd5-a815-4375-8667-150401f95af7.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Café 3 Corações Gourmet 250g Sul De Minas</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>R$ 27,99</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b61a9dd2-7faf-4ea3-820a-2ca3e051db99.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Cafe Spress Capsula Organico Santa Monica C/10un</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>R$ 28,99</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/388ba7ea-a1b3-45a7-87f2-8b29bbcb9990.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Cap 3 Coracoes 10un 11g Chai Latte</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>R$ 21,99</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cd7a361c-eb97-4e06-83e5-42e5d0a50efb.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Drip Coffee Gourmet Santa Monica C/10 Sache</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>R$ 29,99</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4c16c570-5169-4d8a-9c84-998196549e80.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Cafe Spress Capsula Gourmet Santa Monica C/10un</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>R$ 28,99</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/65efafe3-85c1-460e-b027-6694061cbedf.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Cafe 3 Coraçoes Gourmet 250g Dark</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>R$ 27,99</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e7e19bb2-d5d0-4e0f-9b43-0eb6963ec0fd.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Capsulas Cafe Nescafe C/10 44g Brazil</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>R$ 26,99</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/05107276-7b55-4508-946b-ca6a81f132b9.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Capsula Nescafe South Asia Starbucks 46g 10 Unidades</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>R$ 26,99</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/17a5fd83-9dea-41a1-bf2a-ced375e103bb.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Café Italle Torrado/moido 250g Aroma Chocolate C/avelã</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>R$ 24,99</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5e470c9e-042a-489b-9d83-565b13ba1c68.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Capsula 3 Coracoes Cha Cap Cidreira 10un</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>R$ 21,99</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/84754524-3acd-479e-be18-8957cf1dfda7.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Capsulas Cafe Nescafe C/10 44g India</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>R$ 26,99</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1e7854ad-6d33-4a1f-bfcd-bc855a7c96b8.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Capsulas Cafe Nescafe C/10 44g Mexico</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>R$ 26,99</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2a0f21ff-aa4a-42ae-8bb4-75459d84e975.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Café Solúvel Nescafe Sachê 40g Gold Intensidade 6</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8c91cacf-e2d8-44e0-8b73-707c9b8a354a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Capsula Bravo Cafe Maestro 50g C/10</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4dc11920-9838-4365-b0ee-e4e3bdce0f0e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Capsula Bravo Cafe Soprano 50g C/10</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/03a258a1-b6ac-44bc-b048-bca2b9ac57cb.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Capsula Bravo Cafe Tenor 50g C/10</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a65ed466-de60-489b-a056-6ba8f153b016.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>Café Soluvel Lor Sachê 40g Espresso</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>R$ 13,99</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/577765e0-d327-4481-bf5b-3ef708a0ac0f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>Bravo Cafe Coletanea Arabica Moido 250g</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>R$ 25,99</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Bravo Cafe Premium 500g</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>R$ 33,99</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Bravo Cafe Tenor Graos 500g</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>R$ 53,99</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b799f6cf-8e32-444a-8ec1-a4f769794f9b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Capsula Bravo Cafe Baritono 50g C/10</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1c56e7d5-2df2-4cff-9956-be8ac41030e6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f7e4871a-d7b7-44ad-9511-7d51e1219a5a.jpg</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>7896005805701</t>
         </is>
       </c>
     </row>
